--- a/docs/CodeSystem-CSEstadoCivil.xlsx
+++ b/docs/CodeSystem-CSEstadoCivil.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-CSEstadoCivil.xlsx
+++ b/docs/CodeSystem-CSEstadoCivil.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/CodeSystem-CSEstadoCivil.xlsx
+++ b/docs/CodeSystem-CSEstadoCivil.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
